--- a/tests/test_examples/pollution_data_test_4.xlsx
+++ b/tests/test_examples/pollution_data_test_4.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/51ae962a39f43cd0/Pulpit/Marcysia/github/visualisation_geographic_data/tests/test_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{32D97925-EDF2-4026-9521-DCAA707596EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3F8600C-F788-43C4-8E77-82B0833226A0}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{32D97925-EDF2-4026-9521-DCAA707596EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0056698A-78A5-4F95-9AC3-40E460774CF0}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="2280" windowWidth="17280" windowHeight="8880" xr2:uid="{464988A6-2CE5-4FD1-850F-A329DDD75F44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{464988A6-2CE5-4FD1-850F-A329DDD75F44}"/>
   </bookViews>
   <sheets>
-    <sheet name="data2020" sheetId="1" r:id="rId1"/>
-    <sheet name="data2019" sheetId="2" r:id="rId2"/>
-    <sheet name="data2018" sheetId="3" r:id="rId3"/>
-    <sheet name="data2017" sheetId="4" r:id="rId4"/>
-    <sheet name="data2016" sheetId="5" r:id="rId5"/>
+    <sheet name="data2021" sheetId="6" r:id="rId1"/>
+    <sheet name="data2020" sheetId="1" r:id="rId2"/>
+    <sheet name="data2019" sheetId="2" r:id="rId3"/>
+    <sheet name="data2018" sheetId="3" r:id="rId4"/>
+    <sheet name="data2017" sheetId="4" r:id="rId5"/>
+    <sheet name="data2016" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="28">
   <si>
     <t>kujawsko-pomorskie</t>
   </si>
@@ -110,6 +111,9 @@
   </si>
   <si>
     <t>przypadkowa</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -927,6 +931,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
@@ -1223,10 +1231,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06B0C5A-396F-42A0-8F2D-F2C9A9BB7782}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>19947</v>
+      </c>
+      <c r="C2">
+        <v>24306.62</v>
+      </c>
+      <c r="D2">
+        <v>42.2</v>
+      </c>
+      <c r="E2">
+        <v>3.18</v>
+      </c>
+      <c r="F2">
+        <v>26.56</v>
+      </c>
+      <c r="G2">
+        <v>37.65</v>
+      </c>
+      <c r="H2">
+        <v>158.11000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>17972</v>
+      </c>
+      <c r="C3">
+        <v>15750.88</v>
+      </c>
+      <c r="D3">
+        <v>62.3</v>
+      </c>
+      <c r="E3">
+        <v>6.2</v>
+      </c>
+      <c r="F3">
+        <v>27.18</v>
+      </c>
+      <c r="G3">
+        <v>44.77</v>
+      </c>
+      <c r="H3">
+        <v>175.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>25122</v>
+      </c>
+      <c r="C4">
+        <v>12270.73</v>
+      </c>
+      <c r="D4">
+        <v>130.4</v>
+      </c>
+      <c r="E4">
+        <v>6.11</v>
+      </c>
+      <c r="F4">
+        <v>19.91</v>
+      </c>
+      <c r="G4">
+        <v>31.41</v>
+      </c>
+      <c r="H4">
+        <v>145.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>13988</v>
+      </c>
+      <c r="C5">
+        <v>4986.79</v>
+      </c>
+      <c r="D5">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E5">
+        <v>1.68</v>
+      </c>
+      <c r="F5">
+        <v>3.98</v>
+      </c>
+      <c r="G5">
+        <v>12.54</v>
+      </c>
+      <c r="H5">
+        <v>61.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>18219</v>
+      </c>
+      <c r="C6">
+        <v>48236.01</v>
+      </c>
+      <c r="D6">
+        <v>93.93</v>
+      </c>
+      <c r="E6">
+        <v>5.26</v>
+      </c>
+      <c r="F6">
+        <v>67.25</v>
+      </c>
+      <c r="G6">
+        <v>66.62</v>
+      </c>
+      <c r="H6">
+        <v>229.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>15183</v>
+      </c>
+      <c r="C7">
+        <v>17924.34</v>
+      </c>
+      <c r="D7">
+        <v>45.04</v>
+      </c>
+      <c r="E7">
+        <v>2.35</v>
+      </c>
+      <c r="F7">
+        <v>22.78</v>
+      </c>
+      <c r="G7">
+        <v>32.44</v>
+      </c>
+      <c r="H7">
+        <v>156.94999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>35558</v>
+      </c>
+      <c r="C8">
+        <v>58045.52</v>
+      </c>
+      <c r="D8">
+        <v>148.77000000000001</v>
+      </c>
+      <c r="E8">
+        <v>9.9</v>
+      </c>
+      <c r="F8">
+        <v>49.15</v>
+      </c>
+      <c r="G8">
+        <v>87.88</v>
+      </c>
+      <c r="H8">
+        <v>229.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>9412</v>
+      </c>
+      <c r="C9">
+        <v>20797.11</v>
+      </c>
+      <c r="D9">
+        <v>23.12</v>
+      </c>
+      <c r="E9">
+        <v>2.76</v>
+      </c>
+      <c r="F9">
+        <v>13.43</v>
+      </c>
+      <c r="G9">
+        <v>25.71</v>
+      </c>
+      <c r="H9">
+        <v>68.319999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>17846</v>
+      </c>
+      <c r="C10">
+        <v>8028.31</v>
+      </c>
+      <c r="D10">
+        <v>31.42</v>
+      </c>
+      <c r="E10">
+        <v>1.54</v>
+      </c>
+      <c r="F10">
+        <v>16.39</v>
+      </c>
+      <c r="G10">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="H10">
+        <v>242.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>20187</v>
+      </c>
+      <c r="C11">
+        <v>4119.51</v>
+      </c>
+      <c r="D11">
+        <v>104.07</v>
+      </c>
+      <c r="E11">
+        <v>7.32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H11">
+        <v>68.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>18310</v>
+      </c>
+      <c r="C12">
+        <v>13564.65</v>
+      </c>
+      <c r="D12">
+        <v>53.3</v>
+      </c>
+      <c r="E12">
+        <v>3.92</v>
+      </c>
+      <c r="F12">
+        <v>23.21</v>
+      </c>
+      <c r="G12">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>161.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>12333</v>
+      </c>
+      <c r="C13">
+        <v>50417.5</v>
+      </c>
+      <c r="D13">
+        <v>488.88</v>
+      </c>
+      <c r="E13">
+        <v>2.61</v>
+      </c>
+      <c r="F13">
+        <v>44.31</v>
+      </c>
+      <c r="G13">
+        <v>55.84</v>
+      </c>
+      <c r="H13">
+        <v>219.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>11711</v>
+      </c>
+      <c r="C14">
+        <v>15333.41</v>
+      </c>
+      <c r="D14">
+        <v>22.97</v>
+      </c>
+      <c r="E14">
+        <v>1.87</v>
+      </c>
+      <c r="F14">
+        <v>16.02</v>
+      </c>
+      <c r="G14">
+        <v>22.2</v>
+      </c>
+      <c r="H14">
+        <v>68.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>24173</v>
+      </c>
+      <c r="C15">
+        <v>5524.27</v>
+      </c>
+      <c r="D15">
+        <v>58.35</v>
+      </c>
+      <c r="E15">
+        <v>5.67</v>
+      </c>
+      <c r="F15">
+        <v>12.09</v>
+      </c>
+      <c r="G15">
+        <v>21.25</v>
+      </c>
+      <c r="H15">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>29826</v>
+      </c>
+      <c r="C16">
+        <v>21070.68</v>
+      </c>
+      <c r="D16">
+        <v>141.33000000000001</v>
+      </c>
+      <c r="E16">
+        <v>11.73</v>
+      </c>
+      <c r="F16">
+        <v>23.5</v>
+      </c>
+      <c r="G16">
+        <v>50.53</v>
+      </c>
+      <c r="H16">
+        <v>213.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>22892</v>
+      </c>
+      <c r="C17">
+        <v>11199.94</v>
+      </c>
+      <c r="D17">
+        <v>38.89</v>
+      </c>
+      <c r="E17">
+        <v>5.69</v>
+      </c>
+      <c r="F17">
+        <v>19.47</v>
+      </c>
+      <c r="G17">
+        <v>30.68</v>
+      </c>
+      <c r="H17">
+        <v>195.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7818F3A-23A1-49D0-83E8-3B6A860DDD22}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1682,7 +2147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8598B8FC-B048-4239-964A-724689BBF094}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -2142,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4806FBA-1A1C-40A4-9BED-5BA200EFD858}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -2602,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2917CE5-29C7-4EC4-AAA8-6BF7913A090C}">
   <dimension ref="A1:H17"/>
   <sheetViews>
@@ -3059,7 +3524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECAE9A7-1C24-431A-8CF3-7D2D22897543}">
   <dimension ref="A1:H17"/>
   <sheetViews>
